--- a/excercises/excercises/ex010.PVT.xlsx
+++ b/excercises/excercises/ex010.PVT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA85144-744B-495B-832D-9B19F6F1FFE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02F5140-201A-49C8-AC15-6200B8C9AF9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PVT" sheetId="112" r:id="rId1"/>
@@ -11176,25 +11176,25 @@
   </sheetPr>
   <dimension ref="A1:V119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
-    <col min="22" max="32" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" customWidth="1"/>
+    <col min="8" max="8" width="12.26953125" customWidth="1"/>
+    <col min="10" max="10" width="11.26953125" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" customWidth="1"/>
+    <col min="22" max="32" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -11206,17 +11206,17 @@
         <v>7.10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
@@ -11232,7 +11232,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
@@ -11248,7 +11248,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -11264,7 +11264,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -11282,7 +11282,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B11" s="8" t="s">
         <v>17</v>
       </c>
@@ -11300,7 +11300,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B12" s="5" t="s">
         <v>19</v>
       </c>
@@ -11318,7 +11318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B13" s="5" t="s">
         <v>18</v>
       </c>
@@ -11336,7 +11336,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B14" s="8" t="s">
         <v>20</v>
       </c>
@@ -11349,7 +11349,7 @@
       <c r="E14" s="22"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B15" s="9" t="s">
         <v>21</v>
       </c>
@@ -11362,7 +11362,7 @@
       <c r="E15" s="22"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>34</v>
       </c>
@@ -11390,21 +11390,21 @@
       <c r="U17" s="15"/>
       <c r="V17" s="15"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:22" ht="13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:22" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>0</v>
       </c>
@@ -11439,7 +11439,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B24" s="13">
         <v>1</v>
       </c>
@@ -11483,7 +11483,7 @@
         <v>1.2077182981541317</v>
       </c>
     </row>
-    <row r="25" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B25" s="13">
         <v>5</v>
       </c>
@@ -11528,7 +11528,7 @@
         <v>0.2399727744470129</v>
       </c>
     </row>
-    <row r="26" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B26" s="13">
         <v>10</v>
       </c>
@@ -11573,7 +11573,7 @@
         <v>0.11906792789750065</v>
       </c>
     </row>
-    <row r="27" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B27" s="13">
         <v>20</v>
       </c>
@@ -11618,7 +11618,7 @@
         <v>5.8740687207055151E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B28" s="13">
         <v>40</v>
       </c>
@@ -11663,7 +11663,7 @@
         <v>2.8814834594084415E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B29" s="13">
         <v>60</v>
       </c>
@@ -11708,7 +11708,7 @@
         <v>1.9022586955677732E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B30" s="13">
         <v>80</v>
       </c>
@@ -11753,7 +11753,7 @@
         <v>1.4239809734974395E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B31" s="13">
         <v>100</v>
       </c>
@@ -11798,7 +11798,7 @@
         <v>1.1444537028166656E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B32" s="13">
         <v>120</v>
       </c>
@@ -11843,7 +11843,7 @@
         <v>9.6312041879797541E-3</v>
       </c>
     </row>
-    <row r="33" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B33" s="13">
         <v>140</v>
       </c>
@@ -11888,7 +11888,7 @@
         <v>8.3695718088086651E-3</v>
       </c>
     </row>
-    <row r="34" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B34" s="13">
         <v>160</v>
       </c>
@@ -11933,7 +11933,7 @@
         <v>7.4444221416264935E-3</v>
       </c>
     </row>
-    <row r="35" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B35" s="13">
         <v>180</v>
       </c>
@@ -11978,7 +11978,7 @@
         <v>6.7354637741356719E-3</v>
       </c>
     </row>
-    <row r="36" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B36" s="13">
         <v>200</v>
       </c>
@@ -12023,7 +12023,7 @@
         <v>6.1693684086986658E-3</v>
       </c>
     </row>
-    <row r="37" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B37" s="13">
         <v>220</v>
       </c>
@@ -12068,7 +12068,7 @@
         <v>5.6981959510062187E-3</v>
       </c>
     </row>
-    <row r="38" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B38" s="13">
         <v>240</v>
       </c>
@@ -12113,7 +12113,7 @@
         <v>5.2890910575680685E-3</v>
       </c>
     </row>
-    <row r="39" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B39" s="13">
         <v>260</v>
       </c>
@@ -12158,7 +12158,7 @@
         <v>4.9195515527113752E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B40" s="13">
         <v>280</v>
       </c>
@@ -12203,7 +12203,7 @@
         <v>4.5757977261443299E-3</v>
       </c>
     </row>
-    <row r="41" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B41" s="13">
         <v>300</v>
       </c>
@@ -12248,7 +12248,7 @@
         <v>4.2527192837378859E-3</v>
       </c>
     </row>
-    <row r="42" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B42" s="13">
         <v>320</v>
       </c>
@@ -12293,7 +12293,7 @@
         <v>3.9537941144497536E-3</v>
       </c>
     </row>
-    <row r="43" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B43" s="13">
         <v>340</v>
       </c>
@@ -12338,7 +12338,7 @@
         <v>3.6890976278212461E-3</v>
       </c>
     </row>
-    <row r="44" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B44" s="13">
         <v>360</v>
       </c>
@@ -12383,7 +12383,7 @@
         <v>3.4701763770354486E-3</v>
       </c>
     </row>
-    <row r="45" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B45" s="13">
         <v>380</v>
       </c>
@@ -12428,7 +12428,7 @@
         <v>3.3030041050806486E-3</v>
       </c>
     </row>
-    <row r="46" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B46" s="13">
         <v>400</v>
       </c>
@@ -12473,7 +12473,7 @@
         <v>3.1832771452473037E-3</v>
       </c>
     </row>
-    <row r="47" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B47" s="13">
         <v>420</v>
       </c>
@@ -12518,7 +12518,7 @@
         <v>3.0981487328644915E-3</v>
       </c>
     </row>
-    <row r="48" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B48" s="13">
         <v>440</v>
       </c>
@@ -12563,7 +12563,7 @@
         <v>3.0332193236328763E-3</v>
       </c>
     </row>
-    <row r="49" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B49" s="13">
         <v>460</v>
       </c>
@@ -12608,13 +12608,13 @@
         <v>2.9785393009516222E-3</v>
       </c>
     </row>
-    <row r="50" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="108" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K108" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K119" s="3"/>
     </row>
   </sheetData>
